--- a/Data File/plate0/OD_600_01.xlsx
+++ b/Data File/plate0/OD_600_01.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Install\Desktop\eshan\08312022\plate1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Study Material\Evolutionary Bio\Internship\New Data\seascapes_figures-main\seascapes_figures-main\data\08312022\plate0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11628" windowHeight="5664"/>
   </bookViews>
   <sheets>
     <sheet name="Result sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Method name: OD_600_EK</t>
   </si>
@@ -229,13 +229,16 @@
   </si>
   <si>
     <t>2022-08-31 19:03:27</t>
+  </si>
+  <si>
+    <t>median</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -249,6 +252,11 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -285,8 +293,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,6 +388,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -415,6 +440,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,9 +611,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:M50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -1222,48 +1266,48 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="M41" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B42" s="1">
@@ -1304,7 +1348,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="1">
@@ -1345,7 +1389,7 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="1">
@@ -1386,7 +1430,7 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B45" s="1">
@@ -1427,7 +1471,7 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="1">
@@ -1468,7 +1512,7 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B47" s="1">
@@ -1509,7 +1553,7 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B48" s="1">
@@ -1550,7 +1594,7 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B49" s="1">
@@ -1591,30 +1635,107 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
+      <c r="A50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="1">
+        <f>MEDIAN(B42:B49)</f>
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" ref="C50:M50" si="0">MEDIAN(C42:C49)</f>
+        <v>0.10755000000000001</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.109</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1074</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11885</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1426</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15915000000000001</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15184999999999998</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14344999999999999</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1366</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1026</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" s="4" customFormat="1">
+      <c r="B51" s="4">
+        <f>_xlfn.STDEV.P(B42:B49)</f>
+        <v>1.7236860938117475E-3</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" ref="C51:M51" si="1">_xlfn.STDEV.P(C42:C49)</f>
+        <v>2.5905778795473422E-3</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1827147660654019E-2</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2559136102636436E-2</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2002477931403962E-2</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="1"/>
+        <v>3.7668038092658888E-2</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="1"/>
+        <v>4.0657854022931518E-2</v>
+      </c>
+      <c r="I51" s="4">
+        <f t="shared" si="1"/>
+        <v>3.4734672878839724E-2</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" si="1"/>
+        <v>1.911084443450892E-2</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5779770027272952E-2</v>
+      </c>
+      <c r="L51" s="4">
+        <f t="shared" si="1"/>
+        <v>5.1086642089689188E-2</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0855793621295782E-2</v>
+      </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
@@ -1661,5 +1782,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>